--- a/analysis - card peeking - 2020.xlsx
+++ b/analysis - card peeking - 2020.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="95">
   <si>
     <t>Hand</t>
   </si>
@@ -53,10 +53,7 @@
     <t>Start bankroll</t>
   </si>
   <si>
-    <t>Trips played</t>
-  </si>
-  <si>
-    <t>no</t>
+    <t>End bankroll</t>
   </si>
   <si>
     <t>AxQx</t>
@@ -281,12 +278,6 @@
     <t>J</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>All</t>
   </si>
   <si>
@@ -309,6 +300,21 @@
   </si>
   <si>
     <t>Win %</t>
+  </si>
+  <si>
+    <t>Contrrol</t>
+  </si>
+  <si>
+    <t>When one ace is taken out of play</t>
+  </si>
+  <si>
+    <t>End bankroll, Folded</t>
+  </si>
+  <si>
+    <t>Missing Ace</t>
+  </si>
+  <si>
+    <t>Optimal play</t>
   </si>
 </sst>
 </file>
@@ -327,24 +333,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -387,16 +381,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -711,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:AA106"/>
+  <dimension ref="A3:AW106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,13 +722,12 @@
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
     <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="1"/>
-    <col min="10" max="44" width="3.7109375" customWidth="1"/>
+    <col min="7" max="12" width="22.85546875" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" customWidth="1"/>
+    <col min="14" max="45" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -743,15 +741,15 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F4">
         <v>1000000</v>
@@ -760,10 +758,14 @@
         <v>1000000</v>
       </c>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F5">
         <v>1000000</v>
@@ -772,178 +774,243 @@
         <v>1000000</v>
       </c>
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N9" t="s">
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="R7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="R9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="J10" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="7"/>
+      <c r="Q10" t="s">
+        <v>77</v>
+      </c>
+      <c r="S10">
+        <v>2</v>
+      </c>
+      <c r="T10">
+        <v>3</v>
+      </c>
+      <c r="U10">
+        <v>4</v>
+      </c>
+      <c r="V10">
+        <v>5</v>
+      </c>
+      <c r="W10">
+        <v>6</v>
+      </c>
+      <c r="X10">
+        <v>7</v>
+      </c>
+      <c r="Y10">
+        <v>8</v>
+      </c>
+      <c r="Z10">
+        <v>9</v>
+      </c>
+      <c r="AA10">
+        <v>10</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE10" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="M10" t="s">
-        <v>78</v>
-      </c>
-      <c r="O10">
+      <c r="AI10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK10">
         <v>2</v>
       </c>
-      <c r="P10">
+      <c r="AL10">
         <v>3</v>
       </c>
-      <c r="Q10">
+      <c r="AM10">
         <v>4</v>
       </c>
-      <c r="R10">
+      <c r="AN10">
         <v>5</v>
       </c>
-      <c r="S10">
+      <c r="AO10">
         <v>6</v>
       </c>
-      <c r="T10">
+      <c r="AP10">
         <v>7</v>
       </c>
-      <c r="U10">
+      <c r="AQ10">
         <v>8</v>
       </c>
-      <c r="V10">
+      <c r="AR10">
         <v>9</v>
       </c>
-      <c r="W10">
+      <c r="AS10">
         <v>10</v>
       </c>
-      <c r="X10" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z10" t="s">
+      <c r="AT10" t="s">
         <v>81</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AU10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV10" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N11" t="s">
-        <v>80</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="W11" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="X11" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z11" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA11" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AW10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="I11" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="R11" t="s">
+        <v>79</v>
+      </c>
+      <c r="S11" s="4"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AJ11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="4"/>
+      <c r="AP11" s="4"/>
+      <c r="AQ11" s="4"/>
+      <c r="AR11" s="4"/>
+      <c r="AS11" s="4"/>
+      <c r="AT11" s="4"/>
+      <c r="AU11" s="4"/>
+      <c r="AV11" s="4"/>
+      <c r="AW11" s="4"/>
+    </row>
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" t="s">
         <v>7</v>
       </c>
-      <c r="N12" t="s">
-        <v>81</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="X12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA12" s="2"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" t="s">
+        <v>7</v>
+      </c>
+      <c r="R12" t="s">
+        <v>80</v>
+      </c>
+      <c r="S12" s="4"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="6"/>
+      <c r="AJ12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="4"/>
+      <c r="AP12" s="4"/>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="4"/>
+      <c r="AS12" s="4"/>
+      <c r="AT12" s="4"/>
+      <c r="AU12" s="4"/>
+      <c r="AV12" s="4"/>
+      <c r="AW12" s="6"/>
+    </row>
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13">
         <v>1000000</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="2">
         <v>1</v>
       </c>
       <c r="D13" s="1">
@@ -952,58 +1019,68 @@
       <c r="E13" s="1">
         <v>147379400</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" t="s">
-        <v>8</v>
-      </c>
-      <c r="N13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="S13" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="T13" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="U13" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="V13" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="W13" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="X13" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y13" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="F13" s="1">
+        <v>100422740</v>
+      </c>
+      <c r="G13" s="1">
+        <v>53569640</v>
+      </c>
+      <c r="H13" s="1">
+        <v>-19000000</v>
+      </c>
+      <c r="I13" s="1">
+        <v>125516300</v>
+      </c>
+      <c r="J13" s="1">
+        <v>157173700</v>
+      </c>
+      <c r="K13" s="1">
+        <v>135680400</v>
+      </c>
+      <c r="L13" s="1">
+        <v>135563200</v>
+      </c>
+      <c r="R13" t="s">
+        <v>33</v>
+      </c>
+      <c r="S13" s="4"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AJ13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="4"/>
+      <c r="AO13" s="4"/>
+      <c r="AP13" s="4"/>
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="4"/>
+      <c r="AS13" s="4"/>
+      <c r="AT13" s="4"/>
+      <c r="AU13" s="4"/>
+      <c r="AV13" s="6"/>
+      <c r="AW13" s="6"/>
+    </row>
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
       <c r="B14">
         <v>1000000</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="3">
         <v>0.35399999999999998</v>
       </c>
       <c r="D14" s="1">
@@ -1012,56 +1089,68 @@
       <c r="E14" s="1">
         <v>-22645100</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" t="s">
+      <c r="F14" s="1">
+        <v>-18510690</v>
+      </c>
+      <c r="G14" s="1">
+        <v>-14494960</v>
+      </c>
+      <c r="H14" s="1">
+        <v>-19000000</v>
+      </c>
+      <c r="I14" s="1">
+        <v>-32470000</v>
+      </c>
+      <c r="J14" s="1">
+        <v>5311180</v>
+      </c>
+      <c r="K14" s="1">
+        <v>-364440</v>
+      </c>
+      <c r="L14" s="1">
+        <v>-295540</v>
+      </c>
+      <c r="R14" t="s">
+        <v>81</v>
+      </c>
+      <c r="S14" s="4"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AJ14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="4"/>
+      <c r="AP14" s="4"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="4"/>
+      <c r="AS14" s="4"/>
+      <c r="AT14" s="4"/>
+      <c r="AU14" s="6"/>
+      <c r="AV14" s="6"/>
+      <c r="AW14" s="6"/>
+    </row>
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>8</v>
       </c>
-      <c r="N14" t="s">
-        <v>82</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="P14" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="R14" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="S14" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="T14" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="U14" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
       <c r="B15">
         <v>1000000</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="3">
         <v>0.34499999999999997</v>
       </c>
       <c r="D15" s="1">
@@ -1070,54 +1159,68 @@
       <c r="E15" s="1">
         <v>-22427300</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" t="s">
-        <v>8</v>
-      </c>
-      <c r="N15">
+      <c r="F15" s="1">
+        <v>-18394350</v>
+      </c>
+      <c r="G15" s="1">
+        <v>-14440920</v>
+      </c>
+      <c r="H15" s="1">
+        <v>-19000000</v>
+      </c>
+      <c r="I15" s="1">
+        <v>-32699700</v>
+      </c>
+      <c r="J15" s="1">
+        <v>5440840</v>
+      </c>
+      <c r="K15" s="1">
+        <v>-298860</v>
+      </c>
+      <c r="L15" s="1">
+        <v>-378380</v>
+      </c>
+      <c r="R15">
         <v>10</v>
       </c>
-      <c r="O15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="P15" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="R15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="S15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="T15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="U15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="V15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="S15" s="4"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AJ15">
+        <v>10</v>
+      </c>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="5"/>
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="4"/>
+      <c r="AO15" s="4"/>
+      <c r="AP15" s="4"/>
+      <c r="AQ15" s="4"/>
+      <c r="AR15" s="4"/>
+      <c r="AS15" s="4"/>
+      <c r="AT15" s="6"/>
+      <c r="AU15" s="6"/>
+      <c r="AV15" s="6"/>
+      <c r="AW15" s="6"/>
+    </row>
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16">
         <v>1000000</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="3">
         <v>0.35399999999999998</v>
       </c>
       <c r="D16" s="1">
@@ -1126,52 +1229,68 @@
       <c r="E16" s="1">
         <v>-22729800</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" t="s">
-        <v>8</v>
-      </c>
-      <c r="N16">
+      <c r="F16" s="1">
+        <v>-18584820</v>
+      </c>
+      <c r="G16" s="1">
+        <v>-14543760</v>
+      </c>
+      <c r="H16" s="1">
+        <v>-19000000</v>
+      </c>
+      <c r="I16" s="1">
+        <v>-32583300</v>
+      </c>
+      <c r="J16" s="1">
+        <v>5360720</v>
+      </c>
+      <c r="K16" s="1">
+        <v>-271740</v>
+      </c>
+      <c r="L16" s="1">
+        <v>-338740</v>
+      </c>
+      <c r="R16">
         <v>9</v>
       </c>
-      <c r="O16" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="P16" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="R16" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="S16" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="T16" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="U16" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="V16" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="S16" s="4"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AJ16">
+        <v>9</v>
+      </c>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
+      <c r="AO16" s="4"/>
+      <c r="AP16" s="4"/>
+      <c r="AQ16" s="4"/>
+      <c r="AR16" s="4"/>
+      <c r="AS16" s="6"/>
+      <c r="AT16" s="6"/>
+      <c r="AU16" s="6"/>
+      <c r="AV16" s="6"/>
+      <c r="AW16" s="6"/>
+    </row>
+    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>1000000</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="3">
         <v>0.23200000000000001</v>
       </c>
       <c r="D17" s="1">
@@ -1180,50 +1299,66 @@
       <c r="E17" s="1">
         <v>-34938800</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" t="s">
+      <c r="F17" s="1">
+        <v>-27158350</v>
+      </c>
+      <c r="G17" s="1">
+        <v>-19338760</v>
+      </c>
+      <c r="H17" s="1">
+        <v>-19000000</v>
+      </c>
+      <c r="I17" s="1">
+        <v>-45500100</v>
+      </c>
+      <c r="J17" s="1">
+        <v>-1894570</v>
+      </c>
+      <c r="K17" s="1">
+        <v>-7969140</v>
+      </c>
+      <c r="L17" s="1"/>
+      <c r="R17">
         <v>8</v>
       </c>
-      <c r="N17">
+      <c r="S17" s="4"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AJ17">
         <v>8</v>
       </c>
-      <c r="O17" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="P17" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="R17" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="S17" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="T17" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="4"/>
+      <c r="AO17" s="4"/>
+      <c r="AP17" s="4"/>
+      <c r="AQ17" s="4"/>
+      <c r="AR17" s="6"/>
+      <c r="AS17" s="6"/>
+      <c r="AT17" s="6"/>
+      <c r="AU17" s="6"/>
+      <c r="AV17" s="6"/>
+      <c r="AW17" s="6"/>
+    </row>
+    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18">
         <v>1000000</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="3">
         <v>0.22900000000000001</v>
       </c>
       <c r="D18" s="1">
@@ -1232,48 +1367,66 @@
       <c r="E18" s="1">
         <v>-36306400</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" t="s">
-        <v>8</v>
-      </c>
-      <c r="N18">
+      <c r="F18" s="1">
+        <v>-28309990</v>
+      </c>
+      <c r="G18" s="1">
+        <v>-19993560</v>
+      </c>
+      <c r="H18" s="1">
+        <v>-19000000</v>
+      </c>
+      <c r="I18" s="1">
+        <v>-47337300</v>
+      </c>
+      <c r="J18" s="1">
+        <v>-2679830</v>
+      </c>
+      <c r="K18" s="1">
+        <v>-8648130</v>
+      </c>
+      <c r="L18" s="1"/>
+      <c r="R18">
         <v>7</v>
       </c>
-      <c r="O18" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="P18" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="R18" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="S18" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="S18" s="4"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AJ18">
+        <v>7</v>
+      </c>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="4"/>
+      <c r="AP18" s="4"/>
+      <c r="AQ18" s="6"/>
+      <c r="AR18" s="6"/>
+      <c r="AS18" s="6"/>
+      <c r="AT18" s="6"/>
+      <c r="AU18" s="6"/>
+      <c r="AV18" s="6"/>
+      <c r="AW18" s="6"/>
+    </row>
+    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19">
         <v>1000000</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="3">
         <v>0.22869999999999999</v>
       </c>
       <c r="D19" s="1">
@@ -1282,46 +1435,66 @@
       <c r="E19" s="1">
         <v>-36491700</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" t="s">
-        <v>8</v>
-      </c>
-      <c r="N19">
+      <c r="F19" s="1">
+        <v>-28214930</v>
+      </c>
+      <c r="G19" s="1">
+        <v>-19941800</v>
+      </c>
+      <c r="H19" s="1">
+        <v>-19000000</v>
+      </c>
+      <c r="I19" s="1">
+        <v>-47379900</v>
+      </c>
+      <c r="J19" s="1">
+        <v>-2606610</v>
+      </c>
+      <c r="K19" s="1">
+        <v>-8694770</v>
+      </c>
+      <c r="L19" s="1"/>
+      <c r="R19">
         <v>6</v>
       </c>
-      <c r="O19" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="P19" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="R19" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="S19" s="4"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AJ19">
+        <v>6</v>
+      </c>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="4"/>
+      <c r="AO19" s="4"/>
+      <c r="AP19" s="6"/>
+      <c r="AQ19" s="6"/>
+      <c r="AR19" s="6"/>
+      <c r="AS19" s="6"/>
+      <c r="AT19" s="6"/>
+      <c r="AU19" s="6"/>
+      <c r="AV19" s="6"/>
+      <c r="AW19" s="6"/>
+    </row>
+    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20">
         <v>1000000</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="3">
         <v>0.22800000000000001</v>
       </c>
       <c r="D20" s="1">
@@ -1330,44 +1503,66 @@
       <c r="E20" s="1">
         <v>-36505300</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20">
+      <c r="F20" s="1">
+        <v>-28179230</v>
+      </c>
+      <c r="G20" s="1">
+        <v>-19977200</v>
+      </c>
+      <c r="H20" s="1">
+        <v>-19000000</v>
+      </c>
+      <c r="I20" s="1">
+        <v>-47330600</v>
+      </c>
+      <c r="J20" s="1">
+        <v>-2584490</v>
+      </c>
+      <c r="K20" s="1">
+        <v>-8571930</v>
+      </c>
+      <c r="L20" s="1"/>
+      <c r="R20">
         <v>5</v>
       </c>
-      <c r="O20" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="P20" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q20" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="S20" s="4"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AJ20">
+        <v>5</v>
+      </c>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="4"/>
+      <c r="AN20" s="4"/>
+      <c r="AO20" s="6"/>
+      <c r="AP20" s="6"/>
+      <c r="AQ20" s="6"/>
+      <c r="AR20" s="6"/>
+      <c r="AS20" s="6"/>
+      <c r="AT20" s="6"/>
+      <c r="AU20" s="6"/>
+      <c r="AV20" s="6"/>
+      <c r="AW20" s="6"/>
+    </row>
+    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21">
         <v>1000000</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="3">
         <v>0.22900000000000001</v>
       </c>
       <c r="D21" s="1">
@@ -1376,42 +1571,66 @@
       <c r="E21" s="1">
         <v>-36410500</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" t="s">
-        <v>8</v>
-      </c>
-      <c r="N21">
+      <c r="F21" s="1">
+        <v>-28309430</v>
+      </c>
+      <c r="G21" s="1">
+        <v>-19968720</v>
+      </c>
+      <c r="H21" s="1">
+        <v>-19000000</v>
+      </c>
+      <c r="I21" s="1">
+        <v>-47420000</v>
+      </c>
+      <c r="J21" s="1">
+        <v>-2598390</v>
+      </c>
+      <c r="K21" s="1">
+        <v>-8797890</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="R21">
         <v>4</v>
       </c>
-      <c r="O21" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="P21" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="S21" s="4"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AJ21">
+        <v>4</v>
+      </c>
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="4"/>
+      <c r="AN21" s="6"/>
+      <c r="AO21" s="6"/>
+      <c r="AP21" s="6"/>
+      <c r="AQ21" s="6"/>
+      <c r="AR21" s="6"/>
+      <c r="AS21" s="6"/>
+      <c r="AT21" s="6"/>
+      <c r="AU21" s="6"/>
+      <c r="AV21" s="6"/>
+      <c r="AW21" s="6"/>
+    </row>
+    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22">
         <v>1000000</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="3">
         <v>0.23100000000000001</v>
       </c>
       <c r="D22" s="1">
@@ -1420,40 +1639,66 @@
       <c r="E22" s="1">
         <v>-47152600</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" t="s">
-        <v>8</v>
-      </c>
-      <c r="N22">
+      <c r="F22" s="1">
+        <v>-35707800</v>
+      </c>
+      <c r="G22" s="1">
+        <v>-24242000</v>
+      </c>
+      <c r="H22" s="1">
+        <v>-19000000</v>
+      </c>
+      <c r="I22" s="1">
+        <v>-58676500</v>
+      </c>
+      <c r="J22" s="1">
+        <v>-8105250</v>
+      </c>
+      <c r="K22" s="1">
+        <v>-13233570</v>
+      </c>
+      <c r="L22" s="1"/>
+      <c r="R22">
         <v>3</v>
       </c>
-      <c r="O22" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6"/>
+      <c r="AJ22">
+        <v>3</v>
+      </c>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="6"/>
+      <c r="AN22" s="6"/>
+      <c r="AO22" s="6"/>
+      <c r="AP22" s="6"/>
+      <c r="AQ22" s="6"/>
+      <c r="AR22" s="6"/>
+      <c r="AS22" s="6"/>
+      <c r="AT22" s="6"/>
+      <c r="AU22" s="6"/>
+      <c r="AV22" s="6"/>
+      <c r="AW22" s="6"/>
+    </row>
+    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23">
         <v>1000000</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="3">
         <v>0.23200000000000001</v>
       </c>
       <c r="D23" s="1">
@@ -1462,38 +1707,66 @@
       <c r="E23" s="1">
         <v>-47028500</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" t="s">
-        <v>8</v>
-      </c>
-      <c r="N23">
+      <c r="F23" s="1">
+        <v>-35719070</v>
+      </c>
+      <c r="G23" s="1">
+        <v>-24186760</v>
+      </c>
+      <c r="H23" s="1">
+        <v>-19000000</v>
+      </c>
+      <c r="I23" s="1">
+        <v>-58698800</v>
+      </c>
+      <c r="J23" s="1">
+        <v>-7950650</v>
+      </c>
+      <c r="K23" s="1">
+        <v>-13200020</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="R23">
         <v>2</v>
       </c>
-      <c r="O23" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="S23" s="4"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6"/>
+      <c r="AJ23">
+        <v>2</v>
+      </c>
+      <c r="AK23" s="4"/>
+      <c r="AL23" s="6"/>
+      <c r="AM23" s="6"/>
+      <c r="AN23" s="6"/>
+      <c r="AO23" s="6"/>
+      <c r="AP23" s="6"/>
+      <c r="AQ23" s="6"/>
+      <c r="AR23" s="6"/>
+      <c r="AS23" s="6"/>
+      <c r="AT23" s="6"/>
+      <c r="AU23" s="6"/>
+      <c r="AV23" s="6"/>
+      <c r="AW23" s="6"/>
+    </row>
+    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24">
         <v>1000000</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="3">
         <v>0.23100000000000001</v>
       </c>
       <c r="D24" s="1">
@@ -1502,20 +1775,34 @@
       <c r="E24" s="1">
         <v>-47369100</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="F24" s="1">
+        <v>-35686520</v>
+      </c>
+      <c r="G24" s="1">
+        <v>-24257840</v>
+      </c>
+      <c r="H24" s="1">
+        <v>-19000000</v>
+      </c>
+      <c r="I24" s="1">
+        <v>-58592900</v>
+      </c>
+      <c r="J24" s="1">
+        <v>-8048300</v>
+      </c>
+      <c r="K24" s="1">
+        <v>-13329850</v>
+      </c>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25">
         <v>1000000</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="3">
         <v>0.23200000000000001</v>
       </c>
       <c r="D25" s="1">
@@ -1524,20 +1811,34 @@
       <c r="E25" s="1">
         <v>-47008100</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="F25" s="1">
+        <v>-35653690</v>
+      </c>
+      <c r="G25" s="1">
+        <v>-24276080</v>
+      </c>
+      <c r="H25" s="1">
+        <v>-19000000</v>
+      </c>
+      <c r="I25" s="1">
+        <v>-58696800</v>
+      </c>
+      <c r="J25" s="1">
+        <v>-8057590</v>
+      </c>
+      <c r="K25" s="1">
+        <v>-13395340</v>
+      </c>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26">
         <v>1000000</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="3">
         <v>1</v>
       </c>
       <c r="D26" s="1">
@@ -1546,19 +1847,34 @@
       <c r="E26" s="1">
         <v>147450600</v>
       </c>
-      <c r="G26" s="1"/>
-      <c r="H26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="F26" s="1">
+        <v>100406710</v>
+      </c>
+      <c r="G26" s="1">
+        <v>53686800</v>
+      </c>
+      <c r="H26" s="1">
+        <v>-19000000</v>
+      </c>
+      <c r="I26" s="1">
+        <v>147963200</v>
+      </c>
+      <c r="J26" s="1">
+        <v>157223900</v>
+      </c>
+      <c r="K26" s="1">
+        <v>157691600</v>
+      </c>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27">
         <v>1000000</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="3">
         <v>0.35849999999999999</v>
       </c>
       <c r="D27" s="1">
@@ -1567,19 +1883,34 @@
       <c r="E27" s="1">
         <v>-20716600</v>
       </c>
-      <c r="G27" s="1"/>
-      <c r="H27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="F27" s="1">
+        <v>-17491420</v>
+      </c>
+      <c r="G27" s="1">
+        <v>-13874040</v>
+      </c>
+      <c r="H27" s="1">
+        <v>-19000000</v>
+      </c>
+      <c r="I27" s="1">
+        <v>-20683500</v>
+      </c>
+      <c r="J27" s="1">
+        <v>6049260</v>
+      </c>
+      <c r="K27" s="1">
+        <v>6404000</v>
+      </c>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28">
         <v>1000000</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="3">
         <v>0.35799999999999998</v>
       </c>
       <c r="D28" s="1">
@@ -1588,19 +1919,34 @@
       <c r="E28" s="1">
         <v>-21044000</v>
       </c>
-      <c r="G28" s="1"/>
-      <c r="H28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="F28" s="1">
+        <v>-17361080</v>
+      </c>
+      <c r="G28" s="1">
+        <v>-13867360</v>
+      </c>
+      <c r="H28" s="1">
+        <v>-19000000</v>
+      </c>
+      <c r="I28" s="1">
+        <v>-20615000</v>
+      </c>
+      <c r="J28" s="1">
+        <v>6144280</v>
+      </c>
+      <c r="K28" s="1">
+        <v>6293160</v>
+      </c>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29">
         <v>1000000</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="3">
         <v>0.23499999999999999</v>
       </c>
       <c r="D29" s="1">
@@ -1609,649 +1955,829 @@
       <c r="E29" s="1">
         <v>-33322400</v>
       </c>
-      <c r="G29" s="1"/>
-      <c r="H29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="F29" s="1">
+        <v>-25850330</v>
+      </c>
+      <c r="G29" s="1">
+        <v>-18696080</v>
+      </c>
+      <c r="H29" s="1">
+        <v>-19000000</v>
+      </c>
+      <c r="I29" s="1">
+        <v>-32783100</v>
+      </c>
+      <c r="J29" s="1">
+        <v>-1260290</v>
+      </c>
+      <c r="K29" s="1">
+        <v>-1091930</v>
+      </c>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30">
+        <v>1000000</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E30" s="1">
+        <v>-34847000</v>
+      </c>
+      <c r="F30" s="1">
+        <v>-27174800</v>
+      </c>
+      <c r="G30" s="1">
+        <v>-19370040</v>
+      </c>
+      <c r="H30" s="1">
+        <v>-19000000</v>
+      </c>
+      <c r="I30" s="1">
+        <v>-34309400</v>
+      </c>
+      <c r="J30" s="1">
+        <v>-2000470</v>
+      </c>
+      <c r="K30" s="1">
+        <v>-1599020</v>
+      </c>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>24</v>
       </c>
-      <c r="B30">
-        <v>1000000</v>
-      </c>
-      <c r="D30" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B31">
+        <v>1000000</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E31" s="1">
+        <v>-36792500</v>
+      </c>
+      <c r="F31" s="1">
+        <v>-28196030</v>
+      </c>
+      <c r="G31" s="1">
+        <v>-19955240</v>
+      </c>
+      <c r="H31" s="1">
+        <v>-19000000</v>
+      </c>
+      <c r="I31" s="1">
+        <v>-35957000</v>
+      </c>
+      <c r="J31" s="1">
+        <v>-2611120</v>
+      </c>
+      <c r="K31" s="1">
+        <v>-2225510</v>
+      </c>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>25</v>
       </c>
-      <c r="B31">
-        <v>1000000</v>
-      </c>
-      <c r="D31" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B32">
+        <v>1000000</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1">
+        <v>-28259170</v>
+      </c>
+      <c r="G32" s="1">
+        <v>-19947440</v>
+      </c>
+      <c r="H32" s="1">
+        <v>-19000000</v>
+      </c>
+      <c r="I32" s="1">
+        <v>-35910100</v>
+      </c>
+      <c r="J32" s="1">
+        <v>-2586440</v>
+      </c>
+      <c r="K32" s="1">
+        <v>-2297930</v>
+      </c>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>26</v>
       </c>
-      <c r="B32">
-        <v>1000000</v>
-      </c>
-      <c r="D32" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="E32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B33">
+        <v>1000000</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1">
+        <v>-28305930</v>
+      </c>
+      <c r="G33" s="1">
+        <v>-20024640</v>
+      </c>
+      <c r="H33" s="1">
+        <v>-19000000</v>
+      </c>
+      <c r="I33" s="1">
+        <v>-35787200</v>
+      </c>
+      <c r="J33" s="1">
+        <v>-2533920</v>
+      </c>
+      <c r="K33" s="1">
+        <v>-2291850</v>
+      </c>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="E33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B34">
+        <v>1000000</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1">
+        <v>-36888770</v>
+      </c>
+      <c r="G34" s="1">
+        <v>-24800240</v>
+      </c>
+      <c r="H34" s="1">
+        <v>-19000000</v>
+      </c>
+      <c r="I34" s="1">
+        <v>-48506200</v>
+      </c>
+      <c r="J34" s="1">
+        <v>-8021210</v>
+      </c>
+      <c r="K34" s="1">
+        <v>-7747700</v>
+      </c>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="E34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B35">
+        <v>1000000</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1">
+        <v>-36833610</v>
+      </c>
+      <c r="G35" s="1">
+        <v>-24866880</v>
+      </c>
+      <c r="H35" s="1">
+        <v>-19000000</v>
+      </c>
+      <c r="I35" s="1">
+        <v>-48153100</v>
+      </c>
+      <c r="J35" s="1">
+        <v>-8107800</v>
+      </c>
+      <c r="K35" s="1">
+        <v>-78338890</v>
+      </c>
+      <c r="L35" s="1"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="E35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B36">
+        <v>1000000</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1">
+        <v>-36894790</v>
+      </c>
+      <c r="G36" s="1">
+        <v>-24890480</v>
+      </c>
+      <c r="H36" s="1">
+        <v>-19000000</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1">
+        <v>-8030230</v>
+      </c>
+      <c r="K36" s="1">
+        <v>-7822680</v>
+      </c>
+      <c r="L36" s="1"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="E36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B37">
+        <v>1000000</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1">
+        <v>-36825490</v>
+      </c>
+      <c r="G37" s="1">
+        <v>-24900320</v>
+      </c>
+      <c r="H37" s="1">
+        <v>-19000000</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1">
+        <v>-8099730</v>
+      </c>
+      <c r="K37" s="1">
+        <v>-7870790</v>
+      </c>
+      <c r="L37" s="1"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>31</v>
-      </c>
-      <c r="D37" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="E37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>32</v>
       </c>
       <c r="D38" s="1">
         <v>1000000</v>
       </c>
       <c r="E38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D39" s="1">
         <v>1000000</v>
       </c>
       <c r="E39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D40" s="1">
         <v>1000000</v>
       </c>
       <c r="E40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D41" s="1">
         <v>1000000</v>
       </c>
       <c r="E41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D42" s="1">
         <v>1000000</v>
       </c>
       <c r="E42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D43" s="1">
         <v>1000000</v>
       </c>
       <c r="E43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D44" s="1">
         <v>1000000</v>
       </c>
       <c r="E44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D45" s="1">
         <v>1000000</v>
       </c>
       <c r="E45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D46" s="1">
         <v>1000000</v>
       </c>
       <c r="E46" s="1"/>
       <c r="G46" s="1"/>
-      <c r="H46" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D47" s="1">
         <v>1000000</v>
       </c>
       <c r="E47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="H47" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D48" s="1">
         <v>1000000</v>
       </c>
       <c r="E48" s="1"/>
       <c r="G48" s="1"/>
-      <c r="H48" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D49" s="1">
         <v>1000000</v>
       </c>
       <c r="E49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="H49" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D50" s="1">
         <v>1000000</v>
       </c>
       <c r="E50" s="1"/>
       <c r="G50" s="1"/>
-      <c r="H50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D51" s="1">
         <v>1000000</v>
       </c>
       <c r="E51" s="1"/>
       <c r="G51" s="1"/>
-      <c r="H51" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D52" s="1">
         <v>1000000</v>
       </c>
       <c r="E52" s="1"/>
       <c r="G52" s="1"/>
-      <c r="H52" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D53" s="1">
         <v>1000000</v>
       </c>
       <c r="E53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="H53" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D54" s="1">
         <v>1000000</v>
       </c>
       <c r="E54" s="1"/>
       <c r="G54" s="1"/>
-      <c r="H54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D55" s="1">
         <v>1000000</v>
       </c>
       <c r="E55" s="1"/>
       <c r="G55" s="1"/>
-      <c r="H55" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D56" s="1">
         <v>1000000</v>
       </c>
       <c r="E56" s="1"/>
       <c r="G56" s="1"/>
-      <c r="H56" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D57" s="1">
         <v>1000000</v>
       </c>
       <c r="E57" s="1"/>
       <c r="G57" s="1"/>
-      <c r="H57" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D58" s="1">
         <v>1000000</v>
       </c>
       <c r="E58" s="1"/>
       <c r="G58" s="1"/>
-      <c r="H58" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D59" s="1">
         <v>1000000</v>
       </c>
       <c r="E59" s="1"/>
       <c r="G59" s="1"/>
-      <c r="H59" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D60" s="1">
         <v>1000000</v>
       </c>
       <c r="E60" s="1"/>
       <c r="G60" s="1"/>
-      <c r="H60" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D61" s="1">
         <v>1000000</v>
       </c>
       <c r="E61" s="1"/>
       <c r="G61" s="1"/>
-      <c r="H61" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>56</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>57</v>
       </c>
-      <c r="D62" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="E62" s="1"/>
-      <c r="H62" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="D63" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>58</v>
       </c>
-      <c r="D63" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="E63" s="1"/>
-      <c r="H63" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="D64" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>59</v>
       </c>
-      <c r="D64" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="E64" s="1"/>
-      <c r="H64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="D65" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>60</v>
       </c>
-      <c r="D65" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="E65" s="1"/>
-      <c r="H65" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="D66" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>61</v>
       </c>
-      <c r="D66" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="E66" s="1"/>
-      <c r="H66" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="D67" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>62</v>
       </c>
-      <c r="D67" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="E67" s="1"/>
-      <c r="H67" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="D68" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>63</v>
       </c>
-      <c r="D68" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="E68" s="1"/>
-      <c r="H68" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="D69" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>64</v>
       </c>
-      <c r="D69" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="E69" s="1"/>
-      <c r="H69" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="D70" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>65</v>
       </c>
-      <c r="D70" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="E70" s="1"/>
-      <c r="H70" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="D71" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>66</v>
       </c>
-      <c r="D71" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="E71" s="1"/>
-      <c r="H71" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="D72" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>67</v>
       </c>
-      <c r="D72" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="E72" s="1"/>
-      <c r="H72" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="D73" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>68</v>
       </c>
-      <c r="D73" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="E73" s="1"/>
-      <c r="H73" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="D74" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>69</v>
       </c>
-      <c r="D74" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="E74" s="1"/>
-      <c r="H74" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="D75" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>70</v>
-      </c>
-      <c r="D75" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="E75" s="1"/>
-      <c r="H75" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>71</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -2349,6 +2875,9 @@
       <c r="E106" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J10:K10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
